--- a/input/PL/columns_number_parameters.xlsx
+++ b/input/PL/columns_number_parameters.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C306490-CC8D-4E4C-A011-E8D2E8097CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A106789-2CC8-3746-B1A8-0DF9A4F2FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnsNumberParameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>KEY</t>
   </si>
@@ -128,13 +129,88 @@
   </si>
   <si>
     <t>columnsFertilityF1a</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This Excel file is used to define the column numbers required for the corresponding processes in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reg_estimates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> files.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Since the column numbers differ by country, they must be configured </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separately</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>each country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +223,23 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -775,4 +868,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DDE9D8-1A22-9449-9E2C-2ADD8F6A6B39}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/PL/columns_number_parameters.xlsx
+++ b/input/PL/columns_number_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A106789-2CC8-3746-B1A8-0DF9A4F2FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1847717-3783-8C4F-B57A-2876F6B3322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnsNumberParameters" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>KEY</t>
   </si>
@@ -204,6 +204,36 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>columnsProjectionsHighEdu</t>
+  </si>
+  <si>
+    <t>columnsProjectionsLowEdu</t>
+  </si>
+  <si>
+    <t>columnsStudentShareProjections</t>
+  </si>
+  <si>
+    <t>columnsEmploymentAlignment</t>
+  </si>
+  <si>
+    <t>columnsFertilityProjectionsByYear</t>
+  </si>
+  <si>
+    <t>columnsCoefficientMapRMSE</t>
+  </si>
+  <si>
+    <t>columnsMortalityProbabilityByGenderAgeYear</t>
+  </si>
+  <si>
+    <t>columnsPopulationProjections</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
 </sst>
 </file>
@@ -262,12 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -864,6 +895,70 @@
         <v>29</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -874,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DDE9D8-1A22-9449-9E2C-2ADD8F6A6B39}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>

--- a/input/PL/columns_number_parameters.xlsx
+++ b/input/PL/columns_number_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU/input/PL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_NOV/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1847717-3783-8C4F-B57A-2876F6B3322D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1512C22-DF5B-664E-9051-9BB310F9D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>KEY</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -292,13 +298,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +613,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -819,16 +826,16 @@
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1">
-        <v>6</v>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>30</v>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">

--- a/input/PL/columns_number_parameters.xlsx
+++ b/input/PL/columns_number_parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_NOV/input/PL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_testEdu/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1512C22-DF5B-664E-9051-9BB310F9D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FA3CF-B301-B64C-A649-E4520BA08375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="22760" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36200" yWindow="3560" windowWidth="12980" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnsNumberParameters" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>KEY</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
 </sst>
 </file>
@@ -613,7 +622,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,24 +787,24 @@
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
-        <v>12</v>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
-        <v>17</v>
+      <c r="B21" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1">
-        <v>17</v>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">

--- a/input/PL/columns_number_parameters.xlsx
+++ b/input/PL/columns_number_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_testEdu/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FA3CF-B301-B64C-A649-E4520BA08375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1223FB6-9B7B-4D46-8C5E-629141BC75C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36200" yWindow="3560" windowWidth="12980" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32900" yWindow="2940" windowWidth="12980" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnsNumberParameters" sheetId="1" r:id="rId1"/>
@@ -242,10 +242,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>22</t>
@@ -788,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">

--- a/input/PL/columns_number_parameters.xlsx
+++ b/input/PL/columns_number_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_testEdu/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1223FB6-9B7B-4D46-8C5E-629141BC75C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC4676-2784-EE44-B3C4-1AFF21984892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32900" yWindow="2940" windowWidth="12980" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,7 +248,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>22</t>
+    <t>20</t>
   </si>
 </sst>
 </file>

--- a/input/PL/columns_number_parameters.xlsx
+++ b/input/PL/columns_number_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_testEdu/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC4676-2784-EE44-B3C4-1AFF21984892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314507B7-214D-FA43-BA0B-46228FD8573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32900" yWindow="2940" windowWidth="12980" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23900" yWindow="1060" windowWidth="12980" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnsNumberParameters" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>KEY</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -859,8 +862,8 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
-        <v>25</v>
+      <c r="B29" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -875,8 +878,8 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>25</v>
+      <c r="B31" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">

--- a/input/PL/columns_number_parameters.xlsx
+++ b/input/PL/columns_number_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_testEdu/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314507B7-214D-FA43-BA0B-46228FD8573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABB9974-4209-2049-9689-F8D08686C2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23900" yWindow="1060" windowWidth="12980" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31580" yWindow="1320" windowWidth="12980" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ColumnsNumberParameters" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>KEY</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>24</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,16 +825,16 @@
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1">
-        <v>30</v>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1">
-        <v>33</v>
+      <c r="B25" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
